--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,89</t>
+          <t>5,05; 9,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,72</t>
+          <t>3,14; 7,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,93</t>
+          <t>5,48; 10,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,43</t>
+          <t>1,07; 7,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 11,17</t>
+          <t>6,08; 11,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,38</t>
+          <t>6,88; 12,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,92</t>
+          <t>4,6; 9,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,95</t>
+          <t>3,11; 10,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,71</t>
+          <t>6,25; 9,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,93</t>
+          <t>5,56; 9,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,47</t>
+          <t>5,62; 9,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,51</t>
+          <t>2,7; 7,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,47</t>
+          <t>4,36; 8,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,78</t>
+          <t>3,19; 6,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,36</t>
+          <t>4,46; 8,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,27</t>
+          <t>0,11; 3,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,45</t>
+          <t>5,63; 10,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,33</t>
+          <t>7,64; 12,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,55</t>
+          <t>3,79; 7,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>0,96; 3,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,59</t>
+          <t>5,59; 8,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,61</t>
+          <t>5,64; 8,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,46</t>
+          <t>4,63; 7,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,74</t>
+          <t>0,8; 2,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,15</t>
+          <t>2,6; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,11</t>
+          <t>5,72; 9,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,34</t>
+          <t>3,09; 6,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,1</t>
+          <t>2,47; 5,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,61</t>
+          <t>6,41; 10,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,93</t>
+          <t>8,25; 13,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,03</t>
+          <t>5,12; 9,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,98</t>
+          <t>3,83; 6,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 7,78</t>
+          <t>4,95; 7,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 10,66</t>
+          <t>7,62; 10,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,09</t>
+          <t>4,52; 7,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,86</t>
+          <t>3,56; 5,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,26</t>
+          <t>2,39; 6,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,47</t>
+          <t>2,9; 6,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,92</t>
+          <t>2,39; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,17</t>
+          <t>1,53; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,19</t>
+          <t>3,1; 6,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,96</t>
+          <t>2,64; 6,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,71</t>
+          <t>2,65; 5,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,92</t>
+          <t>1,84; 4,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,82</t>
+          <t>3,27; 6,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,57</t>
+          <t>3,12; 5,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,29</t>
+          <t>2,93; 5,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,49</t>
+          <t>1,88; 3,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,35</t>
+          <t>2,39; 6,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,01</t>
+          <t>1,61; 4,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,16</t>
+          <t>1,15; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,41</t>
+          <t>0,88; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,62</t>
+          <t>2,49; 6,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,04</t>
+          <t>1,79; 5,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,19</t>
+          <t>1,89; 5,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,13</t>
+          <t>0,71; 2,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,51</t>
+          <t>2,74; 5,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,25</t>
+          <t>2,05; 4,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,11</t>
+          <t>1,71; 4,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,42</t>
+          <t>0,99; 2,41</t>
         </is>
       </c>
     </row>
@@ -1424,37 +1424,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,44</t>
+          <t>1,65; 4,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,41</t>
+          <t>1,62; 4,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,14</t>
+          <t>0,86; 2,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,59</t>
+          <t>0,85; 2,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,21</t>
+          <t>1,12; 3,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,21</t>
+          <t>0,5; 2,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,64</t>
+          <t>1,06; 3,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,38</t>
+          <t>1,58; 3,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,85</t>
+          <t>1,26; 2,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,73</t>
+          <t>1,19; 2,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,38</t>
+          <t>0,61; 1,4</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,13; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,51</t>
+          <t>4,09; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,08</t>
+          <t>3,61; 5,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,96</t>
+          <t>1,81; 3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,07</t>
+          <t>5,42; 7,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,86; 5,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,11</t>
+          <t>2,01; 3,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,83; 6,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,06</t>
+          <t>4,97; 6,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 4,93</t>
+          <t>3,95; 4,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,83</t>
+          <t>2,06; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,63</t>
+          <t>5,3; 10,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,49</t>
+          <t>3,26; 7,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,85</t>
+          <t>5,2; 10,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,19</t>
+          <t>6,2; 11,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,68</t>
+          <t>6,75; 12,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,92</t>
+          <t>4,77; 9,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,65</t>
+          <t>6,35; 9,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,06</t>
+          <t>5,56; 9,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,26</t>
+          <t>5,45; 9,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,4</t>
+          <t>4,53; 8,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,41</t>
+          <t>3,18; 6,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,36</t>
+          <t>4,4; 8,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,38</t>
+          <t>5,69; 10,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,23</t>
+          <t>7,47; 12,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,84</t>
+          <t>3,81; 7,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,52</t>
+          <t>5,53; 8,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,58</t>
+          <t>5,7; 8,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,38</t>
+          <t>4,55; 7,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,28</t>
+          <t>2,58; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,91</t>
+          <t>5,71; 9,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,52</t>
+          <t>3,19; 6,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,75</t>
+          <t>6,28; 10,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 13,28</t>
+          <t>8,29; 13,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,04</t>
+          <t>5,05; 8,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,81</t>
+          <t>5,03; 7,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,73</t>
+          <t>7,53; 10,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,05</t>
+          <t>4,6; 7,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,1</t>
+          <t>2,49; 6,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,25</t>
+          <t>2,84; 6,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,82</t>
+          <t>2,44; 5,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,98</t>
+          <t>3,23; 7,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,19</t>
+          <t>2,55; 6,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,71</t>
+          <t>2,67; 5,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,06</t>
+          <t>3,3; 5,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,79</t>
+          <t>3,01; 5,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,22</t>
+          <t>2,99; 5,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,05</t>
+          <t>2,26; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,8</t>
+          <t>1,5; 4,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,1</t>
+          <t>1,13; 4,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,57</t>
+          <t>2,43; 6,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,04</t>
+          <t>1,6; 4,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,44</t>
+          <t>1,87; 5,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,76</t>
+          <t>2,85; 5,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,4</t>
+          <t>1,92; 4,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,0</t>
+          <t>1,82; 4,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,59</t>
+          <t>1,64; 4,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,72</t>
+          <t>1,68; 4,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,96</t>
+          <t>0,84; 3,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,25</t>
+          <t>0,95; 3,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,2</t>
+          <t>0,55; 2,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,36</t>
+          <t>1,01; 3,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,22</t>
+          <t>1,52; 3,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,79</t>
+          <t>1,26; 2,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,83</t>
+          <t>1,2; 2,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,74</t>
+          <t>4,08; 5,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,53</t>
+          <t>4,04; 5,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,04</t>
+          <t>3,63; 5,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,18; 6,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,12</t>
+          <t>5,4; 6,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,22</t>
+          <t>3,85; 5,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,03</t>
+          <t>4,82; 6,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 6,03</t>
+          <t>5,0; 6,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 4,98</t>
+          <t>3,92; 4,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,1</t>
+          <t>5,06; 9,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,49</t>
+          <t>3,22; 7,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 10,81</t>
+          <t>5,28; 10,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,09</t>
+          <t>1,08; 7,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,23</t>
+          <t>6,18; 11,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,43</t>
+          <t>6,79; 12,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,95</t>
+          <t>4,59; 9,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,81</t>
+          <t>3,09; 10,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,63</t>
+          <t>6,27; 9,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,01</t>
+          <t>5,51; 8,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,35</t>
+          <t>5,58; 9,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,44</t>
+          <t>2,73; 7,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,46</t>
+          <t>4,52; 8,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,52</t>
+          <t>3,3; 6,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,54</t>
+          <t>4,43; 8,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,83</t>
+          <t>0,11; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,14</t>
+          <t>5,77; 10,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,19</t>
+          <t>7,47; 12,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,35</t>
+          <t>3,8; 7,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,58</t>
+          <t>0,91; 3,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,42</t>
+          <t>5,48; 8,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,58</t>
+          <t>5,79; 8,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,45</t>
+          <t>4,62; 7,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,64</t>
+          <t>0,81; 2,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,98</t>
+          <t>2,57; 6,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,97</t>
+          <t>5,85; 10,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,56</t>
+          <t>3,12; 6,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,94</t>
+          <t>2,55; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,83</t>
+          <t>6,32; 10,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,03</t>
+          <t>8,08; 12,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,83</t>
+          <t>5,15; 9,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,92</t>
+          <t>3,8; 6,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,89</t>
+          <t>5,01; 7,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,68</t>
+          <t>7,7; 10,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,12</t>
+          <t>4,58; 7,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 5,89</t>
+          <t>3,5; 5,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,22</t>
+          <t>2,5; 6,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,38</t>
+          <t>3,04; 6,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,93</t>
+          <t>2,37; 5,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,08</t>
+          <t>1,48; 4,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,33</t>
+          <t>3,14; 7,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,07</t>
+          <t>2,59; 5,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,88</t>
+          <t>2,67; 5,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,02</t>
+          <t>1,81; 3,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,84</t>
+          <t>3,32; 5,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,54</t>
+          <t>3,1; 5,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,37</t>
+          <t>2,97; 5,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,53</t>
+          <t>1,92; 3,49</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,06</t>
+          <t>2,48; 6,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,69</t>
+          <t>1,54; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,35</t>
+          <t>1,1; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,35</t>
+          <t>1,0; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,49</t>
+          <t>2,45; 6,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,86</t>
+          <t>1,61; 5,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,07</t>
+          <t>1,67; 5,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,24</t>
+          <t>0,69; 2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,55</t>
+          <t>2,73; 5,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,24</t>
+          <t>1,9; 4,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,01</t>
+          <t>1,83; 4,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,41</t>
+          <t>1,03; 2,42</t>
         </is>
       </c>
     </row>
@@ -1424,37 +1424,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,59</t>
+          <t>1,68; 4,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,51</t>
+          <t>1,56; 4,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,0</t>
+          <t>0,87; 3,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,54</t>
+          <t>0,87; 2,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,23</t>
+          <t>1,08; 3,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,18</t>
+          <t>0,49; 2,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,32</t>
+          <t>1,11; 3,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,23</t>
+          <t>1,6; 3,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,78</t>
+          <t>1,22; 2,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,81</t>
+          <t>1,18; 2,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,4</t>
+          <t>0,59; 1,38</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,64</t>
+          <t>4,08; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,52</t>
+          <t>4,1; 5,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,05</t>
+          <t>3,6; 5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,01</t>
+          <t>1,83; 2,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,86</t>
+          <t>5,18; 6,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,99</t>
+          <t>5,45; 7,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,26</t>
+          <t>3,85; 5,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,04</t>
+          <t>2,01; 3,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,02</t>
+          <t>4,81; 5,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,09</t>
+          <t>4,95; 6,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,92</t>
+          <t>3,91; 4,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,85</t>
+          <t>2,06; 2,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,43</t>
+          <t>1,15; 9,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,95</t>
+          <t>3,74; 13,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,51</t>
+          <t>2,85; 8,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,27</t>
+          <t>0,12; 3,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,54</t>
+          <t>0,76; 3,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,74</t>
+          <t>0,76; 2,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,1</t>
+          <t>2,63; 6,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,98</t>
+          <t>3,52; 6,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,86</t>
+          <t>3,44; 5,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,17</t>
+          <t>0,77; 3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,92</t>
+          <t>1,75; 3,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,49</t>
+          <t>1,33; 3,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,41</t>
+          <t>1,03; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,13</t>
+          <t>0,67; 2,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,42</t>
+          <t>1,04; 2,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,44</t>
+          <t>1,71; 5,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,41</t>
+          <t>1,68; 6,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,14</t>
+          <t>0,63; 3,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,59</t>
+          <t>1,01; 3,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,21</t>
+          <t>0,82; 3,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,21</t>
+          <t>0,27; 2,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,64</t>
+          <t>1,1; 4,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,99</t>
+          <t>0,1; 1,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,38</t>
+          <t>1,51; 4,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,85</t>
+          <t>1,14; 3,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,73</t>
+          <t>1,2; 3,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,38</t>
+          <t>0,42; 1,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,8; 4,44</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 5,1</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 4,1</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,39</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 4,38</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 3,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 1,21</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 3,62</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 3,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 3,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 1,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,08; 5,69</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,1; 5,51</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,6; 5,08</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,96</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 2,98</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,18; 6,83</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>5,45; 7,07</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,85; 5,27</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 3,11</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 3,21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>4,81; 5,94</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,95; 6,06</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>3,91; 4,93</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 2,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 2,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,89</t>
+          <t>5,27; 10,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,72</t>
+          <t>3,2; 7,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,93</t>
+          <t>5,46; 10,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,15</t>
+          <t>1,06; 8,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 11,17</t>
+          <t>6,11; 11,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,38</t>
+          <t>6,75; 12,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,92</t>
+          <t>4,63; 9,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,09</t>
+          <t>4,05; 12,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,71</t>
+          <t>6,18; 9,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,93</t>
+          <t>5,47; 9,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,47</t>
+          <t>5,46; 9,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,39</t>
+          <t>2,98; 8,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,47</t>
+          <t>4,41; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,78</t>
+          <t>3,21; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,36</t>
+          <t>4,6; 8,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,43</t>
+          <t>0,12; 3,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,45</t>
+          <t>5,8; 10,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,33</t>
+          <t>7,49; 12,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,55</t>
+          <t>3,66; 7,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,25</t>
+          <t>0,8; 3,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,59</t>
+          <t>5,63; 8,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,61</t>
+          <t>5,74; 8,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,46</t>
+          <t>4,56; 7,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,68</t>
+          <t>0,74; 2,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,15</t>
+          <t>2,6; 6,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,11</t>
+          <t>5,87; 9,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,34</t>
+          <t>3,14; 6,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,27</t>
+          <t>2,6; 6,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,61</t>
+          <t>6,34; 10,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,93</t>
+          <t>8,18; 13,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,03</t>
+          <t>5,23; 9,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,83</t>
+          <t>3,39; 6,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 7,78</t>
+          <t>4,99; 7,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 10,66</t>
+          <t>7,6; 10,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,09</t>
+          <t>4,64; 7,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,88</t>
+          <t>3,41; 5,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,26</t>
+          <t>2,4; 5,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,47</t>
+          <t>2,87; 6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,92</t>
+          <t>2,32; 5,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,46</t>
+          <t>0,81; 3,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,19</t>
+          <t>3,3; 7,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,96</t>
+          <t>2,6; 6,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,71</t>
+          <t>2,65; 5,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,9</t>
+          <t>1,75; 3,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,82</t>
+          <t>3,17; 5,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,57</t>
+          <t>3,07; 5,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,29</t>
+          <t>2,87; 5,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,19</t>
+          <t>1,38; 3,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,35</t>
+          <t>2,36; 6,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,01</t>
+          <t>1,68; 5,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,16</t>
+          <t>0,97; 4,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,54</t>
+          <t>1,01; 3,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,62</t>
+          <t>2,4; 6,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,04</t>
+          <t>1,72; 4,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,19</t>
+          <t>1,86; 5,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,09</t>
+          <t>0,65; 2,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,51</t>
+          <t>2,85; 5,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,25</t>
+          <t>2,0; 4,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,11</t>
+          <t>1,84; 3,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,46</t>
+          <t>0,98; 2,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,92</t>
+          <t>1,66; 5,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,24</t>
+          <t>1,69; 5,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,92</t>
+          <t>0,63; 3,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,57</t>
+          <t>1,04; 3,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,88</t>
+          <t>0,8; 3,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,28</t>
+          <t>0,27; 2,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,57</t>
+          <t>1,0; 4,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,24</t>
+          <t>0,1; 1,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,08</t>
+          <t>1,55; 3,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,38</t>
+          <t>1,1; 3,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,6</t>
+          <t>1,28; 3,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,74</t>
+          <t>0,48; 1,82</t>
         </is>
       </c>
     </row>
@@ -1564,37 +1565,37 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,44</t>
+          <t>0,79; 4,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,1</t>
+          <t>0,45; 4,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,1</t>
+          <t>0,58; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,39</t>
+          <t>0,3; 2,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,38</t>
+          <t>0,7; 4,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,71</t>
+          <t>0,56; 3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,72</t>
+          <t>0,34; 3,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,22 +1605,22 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,62</t>
+          <t>1,11; 3,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,17</t>
+          <t>0,86; 3,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,07</t>
+          <t>0,67; 3,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,24</t>
+          <t>0,21; 1,31</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,04; 5,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,51</t>
+          <t>4,11; 5,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,08</t>
+          <t>3,63; 5,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,98</t>
+          <t>1,65; 3,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,17; 6,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,07</t>
+          <t>5,43; 7,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,87; 5,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,21</t>
+          <t>1,92; 3,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,86; 6,03</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,06</t>
+          <t>4,92; 6,06</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,91; 4,93</t>
+          <t>3,92; 4,93</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,83</t>
+          <t>1,94; 2,84</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con dos o más personas por habitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35888</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23025</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32137</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12915</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39266</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39788</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26831</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22796</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>75153</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62813</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58967</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35711</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25954; 49237</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14504; 34948</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22844; 44987</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4162; 34167</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28516; 51811</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29048; 53690</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18126; 37981</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12687; 40072</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59266; 92320</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48302; 79505</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44254; 75122</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21003; 62418</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45438</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32067</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37109</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>48705</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>59155</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30158</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8669</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94143</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>91223</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67267</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12649</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32302; 61051</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22071; 45081</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26969; 51904</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>505; 13498</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36154; 63355</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45644; 73797</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20429; 41030</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4040; 16958</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>76300; 115214</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>74435; 112034</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52126; 85472</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6844; 23004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26392</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52363</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22110</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57470</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74474</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29557</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>83862</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>126837</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>76111</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51667</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16558; 39299</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40055; 66798</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20955; 43841</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13840; 33226</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43730; 74731</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>58077; 93303</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34581; 60243</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20032; 39506</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66155; 102519</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>105711; 149036</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61655; 94905</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38282; 66878</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20141</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26655</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24554</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17953</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25393</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24223</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26373</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18552</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45535</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50878</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50927</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36505</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12396; 29841</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17430; 38535</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14907; 36596</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7187; 31540</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16882; 38054</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15835; 37513</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17106; 37026</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12364; 26086</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32578; 60281</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37316; 67634</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37001; 66886</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21867; 49365</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15433</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12564</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10722</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10965</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16818</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13357</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16122</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6802</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32251</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25921</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26844</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17767</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9143; 25207</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7197; 22165</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4577; 19754</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5604; 19812</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9687; 25967</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7665; 21858</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9232; 25577</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3493; 11322</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22541; 44038</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17502; 37032</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17854; 38420</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10752; 27272</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9554</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10399</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6116</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7206</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6555</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9219</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3097</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16109</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13406</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15335</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10303</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4855; 16508</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5227; 17651</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2091; 12523</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3812; 12942</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2713; 12351</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>940; 9329</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3781; 17211</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>583; 7212</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9806; 24583</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7293; 22811</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9047; 25166</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4692; 17628</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4461</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6853</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5695</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5935</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11315</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>10972</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9988</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1663; 10147</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1109; 11487</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1481; 10675</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>832; 7036</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2332; 13831</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2156; 12361</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1345; 13641</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>159; 5086</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6051; 19383</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5427; 19282</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4341; 19943</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1478; 9183</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>157307</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>162350</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>145123</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>77848</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>201060</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>219699</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>160315</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>90986</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>358366</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>382049</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>305438</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>168834</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>132020; 183004</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>140369; 193221</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>122364; 171312</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>56636; 105425</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>174184; 232663</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>192329; 250007</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>136608; 188378</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>70590; 114945</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>322844; 400050</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>342485; 421320</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>270698; 340004</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>137769; 201908</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>